--- a/tests.xlsx
+++ b/tests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
+    <sheet name="tabela" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
   <si>
     <t>test description</t>
   </si>
@@ -252,11 +252,56 @@
     <t>park lights active
 licence plate light active</t>
   </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Asses</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Crank</t>
+  </si>
+  <si>
+    <t>Turn L/R</t>
+  </si>
+  <si>
+    <t>Hazard</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>High Beam</t>
+  </si>
+  <si>
+    <t>Flash to pass</t>
+  </si>
+  <si>
+    <t>Low Beam</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Reverse</t>
+  </si>
+  <si>
+    <t>Front Fog</t>
+  </si>
+  <si>
+    <t>Rear Fog</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,13 +355,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -327,6 +375,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -375,7 +426,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,9 +459,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,6 +511,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -621,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -968,12 +1053,173 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16828"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
   <si>
     <t>test description</t>
   </si>
@@ -296,6 +296,21 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>low beam switch
+park lights switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequence:
+low beam switch: off
+park lights switch: off
+front/rear fog light switch: on
+low beam switch or/and park lights switch: on
+</t>
   </si>
 </sst>
 </file>
@@ -704,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,6 +770,9 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -772,6 +790,9 @@
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -789,6 +810,9 @@
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -806,6 +830,9 @@
       <c r="E5" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -823,6 +850,9 @@
       <c r="E6" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -840,6 +870,9 @@
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -857,6 +890,9 @@
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -874,6 +910,9 @@
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -891,6 +930,9 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -908,6 +950,9 @@
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F11" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -925,6 +970,9 @@
       <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F12" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -942,6 +990,9 @@
       <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F13" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -959,6 +1010,9 @@
       <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F14" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -976,6 +1030,9 @@
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="F15" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -993,8 +1050,11 @@
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1010,8 +1070,11 @@
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1027,8 +1090,11 @@
       <c r="E18" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1043,6 +1109,29 @@
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1055,7 +1144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -11,6 +11,9 @@
     <sheet name="tabela" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Arkusz1!$A$1:$F$20</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
@@ -370,16 +373,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,422 +727,423 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="20.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="58.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1154,157 +1161,157 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>75</v>
       </c>
     </row>
